--- a/Aleksei_Matveev/разметки/Гедан.xlsx
+++ b/Aleksei_Matveev/разметки/Гедан.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21480" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Андрей ГЕДАН БАРАЙ</t>
   </si>
@@ -103,6 +103,294 @@
   </si>
   <si>
     <t>return</t>
+  </si>
+  <si>
+    <t>41-53;97-104;146-155;195-204;245-253;293-304;345-355;396-407;450-458;500-509;</t>
+  </si>
+  <si>
+    <t>70-84;121-135;170-184;220-233;269-284;319-333;372-385;422-437;476-488;526-542;</t>
+  </si>
+  <si>
+    <t>0-40;85-96;136-145;185-194;234-244;285-292;334-344;386-395;438-449;489-499;543-548;</t>
+  </si>
+  <si>
+    <t>54-69;105-120;156-169;205-219;254-268;305-318;356-371;408-421;459-475;510-525;</t>
+  </si>
+  <si>
+    <t>41-53;91-104;145-154;197-205;246-256;300-310;353-362;406-416;457-467;509-519;</t>
+  </si>
+  <si>
+    <t>54-67;105-118;155-170;206-220;257-273;311-325;363-378;417-432;468-484;520-538;</t>
+  </si>
+  <si>
+    <t>68-80;119-130;171-183;221-234;274-288;326-341;379-394;433-448;485-499;539-552;</t>
+  </si>
+  <si>
+    <t>0-40;81-90;131-144;184-196;235-245;289-299;342-352;395-405;449-456;500-508;553-561;</t>
+  </si>
+  <si>
+    <t>32-47;82-93;128-142;175-185;222-233;268-279;306-316;358-368;404-416;453-466;</t>
+  </si>
+  <si>
+    <t>48-61;94-110;143-156;186-200;234-247;280-293;317-333;369-377;417-427;467-478;</t>
+  </si>
+  <si>
+    <t>62-73;111-121;157-170;201-213;248-261;294-298;334-352;378-392;428-444;479-493;</t>
+  </si>
+  <si>
+    <t>0-31;74-81;122-127;171-174;214-221;262-267;299-305;353-357;393-403;445-452;494-509</t>
+  </si>
+  <si>
+    <t>25-41;76-87;122-137;176-189;231-241;283-298;333-353;393-407;449-466;501-521;</t>
+  </si>
+  <si>
+    <t>42-53;88-100;138-150;190-203;242-254;299-312;354-364;408-420;467-477;522-532;</t>
+  </si>
+  <si>
+    <t>54-64;101-114;151-162;204-217;255-270;313-325;365-381;421-436;478-492;533-545;</t>
+  </si>
+  <si>
+    <t>0-24;65-75;115-121;163-175;218-230;271-282;326-332;382-392;437-448;493-500;546-557;</t>
+  </si>
+  <si>
+    <t>34-43;75-84;115-123;154-162;194-201;233-240;272-282;318-328;363-373;410-418;</t>
+  </si>
+  <si>
+    <t>44-55;85-97;124-131;163-173;202-210;241-253;283-293;329-339;374-384;419-429;</t>
+  </si>
+  <si>
+    <t>56-66;98-110;132-148;174-185;211-224;254-265;294-309;340-352;385-398;430-444;</t>
+  </si>
+  <si>
+    <t>0-33;67-74;111-114;149-153;186-193;225-232;266-271;310-317;353-362;399-409;445-458</t>
+  </si>
+  <si>
+    <t>20-32;61-71;101-111;141-151;181-191;222-232;265-276;309-322;353-368;401-411;</t>
+  </si>
+  <si>
+    <t>33-41;72-83;112-122;152-162;192-204;233-245;277-289;323-335;369-381;412-425;</t>
+  </si>
+  <si>
+    <t>42-54;84-95;123-135;163-175;205-216;246-260;290-302;336-346;382-395;426-437;</t>
+  </si>
+  <si>
+    <t>0-19;55-60;96-100;136-140;176-180;217-221;261-264;303-308;347-352;396-400;438-447;</t>
+  </si>
+  <si>
+    <t>11-27;62-75;110-122;160-172;212-222;260-270;311-321;362-374;412-527;467-478;</t>
+  </si>
+  <si>
+    <t>28-40;76-87;123-136;173-186;223-237;271-286;322-337;375-389;428-440;479-492;</t>
+  </si>
+  <si>
+    <t>41-50;88-100;137-149;187-204;238-252;287-301;338-353;390-404;441-455;493-508;</t>
+  </si>
+  <si>
+    <t>0-10;50-61;101-109;150-159;205-211;253-259;302-310;354-361;405-411;456-466;509-526;</t>
+  </si>
+  <si>
+    <t>12-24;58-70;104-115;150-162;199-210;247-256;294-304;339-352;389-401;439-449;</t>
+  </si>
+  <si>
+    <t>25-27;71-83;116-127;163-175;211-224;257-270;305-316;353-365;402-414;450-463;</t>
+  </si>
+  <si>
+    <t>38-52;84-97;128-141;176-190;225-238;271-284;317-333;366-382;415-430;464-479;</t>
+  </si>
+  <si>
+    <t>0-11;53-57;98-103;142-149;191-198;239-246;285-293;334-338;383-388;431-438;480-492;</t>
+  </si>
+  <si>
+    <t>43-54;105-115;164-174;226-233;288-296;347-356;409-419;474-484;541-549;602-610;</t>
+  </si>
+  <si>
+    <t>55-63;116-122;175-181;234-241;297-303;357-365;420-426;485-492;550-556;611-619;</t>
+  </si>
+  <si>
+    <t>64-97;123-156;182-216;242-278;304-341;366-400;427-465;493-530;557-594;620-653;</t>
+  </si>
+  <si>
+    <t>0-42;98-104;157-163;217-225;279-287;342-346;401-408;466-473;531-540;595-601;654-719;</t>
+  </si>
+  <si>
+    <t>27-35;92-99;152-163;218-228;284-293;346-356;412-422;476-485;541-552;606-614;</t>
+  </si>
+  <si>
+    <t>36-45;100-107;164-170;229-236;294-301;357-364;423-428;486-493;553-560;615-622;</t>
+  </si>
+  <si>
+    <t>46-75;108-140;171-206;237-273;302-336;365-398;429-462;494-531;561-594;623-650;</t>
+  </si>
+  <si>
+    <t>0-26;76-91;141-151;207-217;274-283;337-345;399-411;463-475;532-540;595-605;651-679;</t>
+  </si>
+  <si>
+    <t>48-56;96-104;139-147;186-194;234-244;283-290;329-338;377-387;424-434;475-482;</t>
+  </si>
+  <si>
+    <t>57-65;105-112;148-156;195-201;245-252;291-297;339-345;388-394;435-443;483-491;</t>
+  </si>
+  <si>
+    <t>66-85;113-132;157-176;202-224;253-273;298-318;346-366;395-412;444-466;492-516;</t>
+  </si>
+  <si>
+    <t>0-47;86-95;133-138;177-185;225-233;274-282;319-328;367-376;413-423;467-474;517-534;</t>
+  </si>
+  <si>
+    <t>40-47;90-96;139-146;190-197;241-248;292-300;343-350;398-405;444-453;494-503;</t>
+  </si>
+  <si>
+    <t>48-55;97-103;147-153;198-204;249-255;301-306;351-357;406-412;454-462;504-511;</t>
+  </si>
+  <si>
+    <t>56-82;104-129;154-174;205-229;256-283;307-332;358-381;413-436;463-486;512-536;</t>
+  </si>
+  <si>
+    <t>0-39;83-89;130-138;175-189;230-240;284-291;333-342;382-397;437-443;487-493;537-568</t>
+  </si>
+  <si>
+    <t>14-25;65-77;110-125;161-173;208-220;255-266;303-315;353-362;405-414;451-461;</t>
+  </si>
+  <si>
+    <t>26-33;78-84;126-132;174-180;221-228;267-275;316-323;363-371;415-420;462-470;</t>
+  </si>
+  <si>
+    <t>34-53;85-105;133-154;181-201;229-247;276-295;324-345;372-392;421-442;471-489;</t>
+  </si>
+  <si>
+    <t>0-13;54-64;106-109;155-160;202-207;248-254;296-302;346-352;393-404;443-450;490-505;</t>
+  </si>
+  <si>
+    <t>29-40;80-90;127-139;178-190;228-239;281-293;334-346;387-398;440-450;490-501;</t>
+  </si>
+  <si>
+    <t>41-49;91-100;140-149;191-199;240-249;294-303;347-355;399-408;451-460;502-511;</t>
+  </si>
+  <si>
+    <t>50-68;101-119;150-171;200-219;250-271;304-323;356-377;409-430;461-484;512-533;</t>
+  </si>
+  <si>
+    <t>0-28;69-79;120-126;172-177;220-227;272-280;324-333;378-386;431-439;485-489;534-552;</t>
+  </si>
+  <si>
+    <t>25-34;74-82;118-127;165-175;212-220;255-266;304-313;352-362;399-407;447-457;</t>
+  </si>
+  <si>
+    <t>35-43;83-92;128-137;176-183;221-228;267-274;314-320;363-370;408-417;458-465;</t>
+  </si>
+  <si>
+    <t>44-66;93-114;138-160;184-206;229-251;275-297;321-345;371-392;418-440;466-488;</t>
+  </si>
+  <si>
+    <t>0-24;67-73;115-117;161-164;207-211;252-254;298-303;346-351;393-398;441-446;489-507;</t>
+  </si>
+  <si>
+    <t>27-37;70-78;111-122;157-166;205-214;251-262;298-306;345-353;390-400;438-447;</t>
+  </si>
+  <si>
+    <t>38-43;79-85;123-129;167-174;215-221;263-269;307-315;354-361;401-408;448-456;</t>
+  </si>
+  <si>
+    <t>44-63;86-107;130-150;175-196;222-243;270-294;316-340;362-386;409-432;457-478;</t>
+  </si>
+  <si>
+    <t>0-26;64-69;108-110;151-156;197-204;244-250;295-297;341-344;387-389;433-437;479-495;</t>
+  </si>
+  <si>
+    <t>22-33;68-80;115-127;165-175;216-227;266-277;313-323;361-371;407-420;469-483;</t>
+  </si>
+  <si>
+    <t>34-39;81-87;128-135;176-186;228-236;278-285;324-331;372-380;421-430;484-489;</t>
+  </si>
+  <si>
+    <t>40-64;88-110;136-158;187-210;237-259;286-307;332-353;381-402;431-452;490-517;</t>
+  </si>
+  <si>
+    <t>0-21;65-67;111-114;159-164;211-215;260-265;308-312;354-360;403-406;453-468;518-533;</t>
+  </si>
+  <si>
+    <t>36-45;88-98;138-145;182-192;232-245;284-294;335-344;385-394;438-448;492-502;</t>
+  </si>
+  <si>
+    <t>46-51;99-105;146-152;193-202;246-252;295-301;345-351;395-401;449-454;503-509;</t>
+  </si>
+  <si>
+    <t>52-72;106-126;153-176;203-223;253-274;302-323;352-376;402-427;455-479;510-531;</t>
+  </si>
+  <si>
+    <t>0-35;73-87;127-137;177-181;224-231;275-283;324-334;377-384;428-437;480-491;532-553;</t>
+  </si>
+  <si>
+    <t>20-32;77-85;129-136;177-187;228-237;278-288;329-339;379-388;428-437;473-484;</t>
+  </si>
+  <si>
+    <t>33-38;86-91;137-142;188-192;238-244;289-294;340-345;389-394;438-443;485-491;</t>
+  </si>
+  <si>
+    <t>39-61;92-111;143-160;193-213;245-261;295-312;346-365;395-415;444-462;492-510;</t>
+  </si>
+  <si>
+    <t>0-19;62-76;112-128;161-176;214-227;262-277;313-328;366-378;416-427;463-472;511-525;</t>
+  </si>
+  <si>
+    <t>24-33;70-82;120-127;165-173;213-220;259-268;308-316;352-360;396-406;442-451;</t>
+  </si>
+  <si>
+    <t>34-38;83-88;128-133;174-180;221-226;269-274;317-322;361-366;407-412;452-458;</t>
+  </si>
+  <si>
+    <t>39-57;89-103;134-150;181-198;227-242;275-291;323-336;367-382;413-428;459-477;</t>
+  </si>
+  <si>
+    <t>0-23;58-69;104-119;151-164;199-212;243-258;292-307;337-351;383-395;429-441;478-503;</t>
+  </si>
+  <si>
+    <t>37-49;88-96;140-152;194-205;246-257;305-317;361-373;417-428;468-478;516-527;</t>
+  </si>
+  <si>
+    <t>50-60;97-108;153-162;206-214;258-271;318-329;374-386;429-439;479-488;528-539;</t>
+  </si>
+  <si>
+    <t>61-77;109-125;163-179;215-233;272-289;330-346;387-403;440-457;489-504;540-556;</t>
+  </si>
+  <si>
+    <t>0-36;78-87;126-139;180-193;234-245;290-304;347-360;404-416;458-467;505-515;557-595;</t>
+  </si>
+  <si>
+    <t>34-45;93-103;147-155;203-213;257-265;308-319;374-387;432-441;484-496;541-550;</t>
+  </si>
+  <si>
+    <t>46-59;104-117;156-170;214-229;266-278;320-333;388-398;442-456;497-510;551-563;</t>
+  </si>
+  <si>
+    <t>60-75;118-134;171-186;230-246;279-295;334-351;399-415;457-473;511-528;564-580;</t>
+  </si>
+  <si>
+    <t>0-33;76-92;135-146;187-202;247-256;296-307;352-373;416-431;474-483;529-540;581-603;</t>
+  </si>
+  <si>
+    <t>34-50;90-102;144-155;201-210;255-265;325-334;377-386;434-442;485-496;544-553;</t>
+  </si>
+  <si>
+    <t>51-60;103-113;156-165;211-220;266-276;335-341;387-395;443-451;497-509;554-565;</t>
+  </si>
+  <si>
+    <t>61-85;114-134;166-190;221-243;277-299;342-362;396-424;452-473;510-534;566-585;</t>
+  </si>
+  <si>
+    <t>0-33;86-89;135-143;191-200;244-254;300-324;363-376;425-433;474-484;535-543;586-621;</t>
+  </si>
+  <si>
+    <t>39-52;97-107;154-163;206-218;263-273;318-329;377-388;433-445;486-500;546-557;</t>
+  </si>
+  <si>
+    <t>53-60;108-117;164-173;219-229;274-286;330-340;389-398;446-454;501-510;558-567;</t>
+  </si>
+  <si>
+    <t>61-85;118-143;174-198;230-252;287-311;341-372;399-426;455-481;511-539;568-594;</t>
+  </si>
+  <si>
+    <t>0-38;86-96;144-153;199-205;253-262;312-317;373-376;427-432;482-485;540-545;595-606;</t>
   </si>
 </sst>
 </file>
@@ -459,17 +747,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" customWidth="1"/>
+    <col min="2" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -489,224 +776,416 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A24">
+  <sortState ref="A2:E25">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
